--- a/Proyecto/Venta/proveedores-varios/proveedores-locales/proveedores-locales.xlsx
+++ b/Proyecto/Venta/proveedores-varios/proveedores-locales/proveedores-locales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\OneDrive\Documentos\UiPath\Venta\proveedores-varios\proveedores-locales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMEN\Documents\Gerenciales2\SOG21S25_201709282\Proyecto\Venta\proveedores-varios\proveedores-locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167D9501-392A-491E-A638-FEDF3E0955CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B51257E-A6BE-40E1-A59F-702D3767718C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="198">
-  <si>
-    <t>Material</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
   <si>
     <t>Melanie</t>
   </si>
@@ -45,9 +42,6 @@
     <t>Lee, Woods and Meyers</t>
   </si>
   <si>
-    <t>Escuintla</t>
-  </si>
-  <si>
     <t>Wood</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
     <t>Smith-Mayer</t>
   </si>
   <si>
-    <t>Totonicapán</t>
-  </si>
-  <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
     <t>Jacob</t>
   </si>
   <si>
@@ -84,12 +72,6 @@
     <t>Hamilton and Sons</t>
   </si>
   <si>
-    <t>Chiquimula</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -102,12 +84,6 @@
     <t>Phillips Ltd</t>
   </si>
   <si>
-    <t>Alta Verapaz</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
     <t>Michelle</t>
   </si>
   <si>
@@ -120,12 +96,6 @@
     <t>Taylor-Lane</t>
   </si>
   <si>
-    <t>Quetzaltenango</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
     <t>Jonathan</t>
   </si>
   <si>
@@ -138,9 +108,6 @@
     <t>Doyle LLC</t>
   </si>
   <si>
-    <t>Quiché</t>
-  </si>
-  <si>
     <t>Gina</t>
   </si>
   <si>
@@ -165,12 +132,6 @@
     <t>Flynn Inc</t>
   </si>
   <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Textile</t>
-  </si>
-  <si>
     <t>Cheryl</t>
   </si>
   <si>
@@ -183,9 +144,6 @@
     <t>Murphy-Wright</t>
   </si>
   <si>
-    <t>Chimaltenango</t>
-  </si>
-  <si>
     <t>Tiffany</t>
   </si>
   <si>
@@ -198,9 +156,6 @@
     <t>Mitchell-Hayes</t>
   </si>
   <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
     <t>Susan</t>
   </si>
   <si>
@@ -213,9 +168,6 @@
     <t>Jones, Rivera and Clark</t>
   </si>
   <si>
-    <t>Jutiapa</t>
-  </si>
-  <si>
     <t>Amy</t>
   </si>
   <si>
@@ -240,9 +192,6 @@
     <t>Moore, Green and Moses</t>
   </si>
   <si>
-    <t>Jalapa</t>
-  </si>
-  <si>
     <t>Laura</t>
   </si>
   <si>
@@ -255,9 +204,6 @@
     <t>Hoffman, Howe and Gray</t>
   </si>
   <si>
-    <t>Huehuetenango</t>
-  </si>
-  <si>
     <t>Cory</t>
   </si>
   <si>
@@ -294,9 +240,6 @@
     <t>Lee-Henderson</t>
   </si>
   <si>
-    <t>Leather</t>
-  </si>
-  <si>
     <t>Carl</t>
   </si>
   <si>
@@ -309,9 +252,6 @@
     <t>Myers, Jordan and Clark</t>
   </si>
   <si>
-    <t>Sololá</t>
-  </si>
-  <si>
     <t>Roy</t>
   </si>
   <si>
@@ -336,9 +276,6 @@
     <t>Jackson, Austin and Blair</t>
   </si>
   <si>
-    <t>San Marcos</t>
-  </si>
-  <si>
     <t>Erica</t>
   </si>
   <si>
@@ -363,9 +300,6 @@
     <t>Graham Ltd</t>
   </si>
   <si>
-    <t>Sacatepéquez</t>
-  </si>
-  <si>
     <t>Katherine</t>
   </si>
   <si>
@@ -378,9 +312,6 @@
     <t>Pena LLC</t>
   </si>
   <si>
-    <t>Izabal</t>
-  </si>
-  <si>
     <t>Jason</t>
   </si>
   <si>
@@ -402,9 +333,6 @@
     <t>Hess Inc</t>
   </si>
   <si>
-    <t>Petén</t>
-  </si>
-  <si>
     <t>Amanda</t>
   </si>
   <si>
@@ -441,9 +369,6 @@
     <t>Reyes, Hobbs and Love</t>
   </si>
   <si>
-    <t>Zacapa</t>
-  </si>
-  <si>
     <t>Jeffrey</t>
   </si>
   <si>
@@ -456,9 +381,6 @@
     <t>Martin, Christian and Werner</t>
   </si>
   <si>
-    <t>Glass</t>
-  </si>
-  <si>
     <t>Jennifer</t>
   </si>
   <si>
@@ -466,9 +388,6 @@
   </si>
   <si>
     <t>Fisher-Williams</t>
-  </si>
-  <si>
-    <t>Copper</t>
   </si>
   <si>
     <t>Timothy</t>
@@ -936,1262 +855,1006 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>25720265</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>44300317</v>
       </c>
       <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>45070520</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>15676613</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>52546489</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>58533544</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>53733780</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>78302512</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>86369643</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>56290207</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>65665986</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>72895176</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>96328207</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>33721987</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>94659806</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>57534863</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>14092810</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>84080104</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>81652176</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>11918794</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <v>90464376</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>39674802</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>34082223</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>31899675</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <v>86893147</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>61472693</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <v>76308431</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>13533456</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>67782038</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>69777448</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F32">
         <v>86665697</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F33">
         <v>28940766</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
-      </c>
-      <c r="H33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F34">
         <v>17645627</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>73277076</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
-      </c>
-      <c r="H35" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>80137006</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>17961504</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
-      </c>
-      <c r="H37" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F38">
         <v>41765362</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F39">
         <v>82448464</v>
       </c>
       <c r="G39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <v>68969525</v>
       </c>
       <c r="G40" t="s">
-        <v>178</v>
-      </c>
-      <c r="H40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>39385880</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
-      </c>
-      <c r="H41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F42">
         <v>72022012</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
-      </c>
-      <c r="H42" t="s">
-        <v>103</v>
-      </c>
-      <c r="I42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>61852217</v>
       </c>
       <c r="G43" t="s">
-        <v>190</v>
-      </c>
-      <c r="H43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
